--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/78.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/78.xlsx
@@ -479,13 +479,13 @@
         <v>-4.475702456656834</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.91803072908507</v>
+        <v>-11.60754676719353</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5264965803162642</v>
+        <v>-0.7240987071064358</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.859289108475446</v>
+        <v>-8.648673232660599</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-4.268319119402134</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.54368569728547</v>
+        <v>-12.21565804958602</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5132995390518044</v>
+        <v>-0.7289559514607161</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.772526417543327</v>
+        <v>-8.556948558951467</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-3.994735749133284</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.94015990424146</v>
+        <v>-12.60558610512115</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5053132343183514</v>
+        <v>-0.6940649643875161</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.194933293074898</v>
+        <v>-7.996165951331814</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-3.665241172170705</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.52937899363334</v>
+        <v>-13.18278646050433</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4864995951347911</v>
+        <v>-0.6993149778270483</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.949308599461276</v>
+        <v>-7.724631590394415</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.274727466040063</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.93441556664782</v>
+        <v>-13.59824450658082</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6043695976188509</v>
+        <v>-0.8497717220841643</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.544939733891725</v>
+        <v>-7.301959685452131</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.826042338988956</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.62210186571233</v>
+        <v>-14.27035096526367</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.382167033789076</v>
+        <v>-0.6468933972487771</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.060878020924586</v>
+        <v>-6.83024401406474</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.3134807815198</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.36852023532481</v>
+        <v>-15.00740833834432</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5334747777309042</v>
+        <v>-0.7915895282555336</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.794790057969346</v>
+        <v>-6.562545697859967</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-1.737970346845334</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.96453422989155</v>
+        <v>-15.60164177972459</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.4922602083851505</v>
+        <v>-0.7396130859738811</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.461813519795727</v>
+        <v>-6.220011778611888</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.104617488060127</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.66509026264947</v>
+        <v>-16.30590293418672</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4404932429489656</v>
+        <v>-0.6913417653964371</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.341521441285948</v>
+        <v>-6.109394911902145</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.43256017649906</v>
       </c>
       <c r="E11" t="n">
-        <v>-17.15280472810945</v>
+        <v>-16.80724648690493</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5403482367228104</v>
+        <v>-0.7663606606795275</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.123285845217216</v>
+        <v>-5.88795170163719</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2440386549313246</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.70946326033396</v>
+        <v>-17.37034643212757</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.4850856264278846</v>
+        <v>-0.7206685237619035</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.830921630458631</v>
+        <v>-5.594749579496734</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.884069386225557</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.07056206501161</v>
+        <v>-17.74350324772245</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4906760397413016</v>
+        <v>-0.7205637853391696</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.280141542210057</v>
+        <v>-5.062416545952153</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>1.443303100831906</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.93203559199718</v>
+        <v>-18.57622607766759</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2274421988055573</v>
+        <v>-0.4766672757006548</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.842832442690723</v>
+        <v>-4.607301914568071</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.888661268575505</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.59044750190758</v>
+        <v>-19.25028328947386</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.09052289568678612</v>
+        <v>-0.3370247735908045</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.722134502792851</v>
+        <v>-4.510680719596133</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>2.204066194684512</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.41180621298611</v>
+        <v>-20.06516131064573</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09650065040727077</v>
+        <v>-0.1492942431432944</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.368943449031606</v>
+        <v>-4.16220289485791</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>2.392228166171328</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.24586445782111</v>
+        <v>-20.86542832184623</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3896634956392009</v>
+        <v>0.125500101201694</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.161286433658989</v>
+        <v>-3.946873790020041</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.473438227504041</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.90328135271555</v>
+        <v>-21.50382210071164</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3241365199163619</v>
+        <v>0.07169073652219987</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.017218733188636</v>
+        <v>-3.797844106772673</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.478701395320364</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.40095906063808</v>
+        <v>-22.02485647690381</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6861386934900877</v>
+        <v>0.4044577978503514</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.557665811141209</v>
+        <v>-3.350519395579419</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.44345041677649</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.85112480154799</v>
+        <v>-22.46847606639286</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9171261925266607</v>
+        <v>0.6517713985305568</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.167475909549247</v>
+        <v>-2.944108130766558</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.400015395169999</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.43731956898343</v>
+        <v>-23.07882613257129</v>
       </c>
       <c r="F21" t="n">
-        <v>1.054451357033525</v>
+        <v>0.8118640776791831</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.021405086744109</v>
+        <v>-2.792996771367356</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.376594385621397</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.87193165411737</v>
+        <v>-23.52715895108335</v>
       </c>
       <c r="F22" t="n">
-        <v>1.213679944194598</v>
+        <v>0.9865415821934923</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.950470989947637</v>
+        <v>-2.720125013750309</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.390172183922247</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.24724869968113</v>
+        <v>-23.89810316749798</v>
       </c>
       <c r="F23" t="n">
-        <v>1.430200448591064</v>
+        <v>1.183096324756326</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.668973386547685</v>
+        <v>-2.45806948007032</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.453595520402695</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.89704587432168</v>
+        <v>-24.50125246711346</v>
       </c>
       <c r="F24" t="n">
-        <v>1.635330649515228</v>
+        <v>1.386236495648548</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.72074035198387</v>
+        <v>-2.523426255856216</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.571374740385214</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.03319273157279</v>
+        <v>-24.66283766878604</v>
       </c>
       <c r="F25" t="n">
-        <v>1.851432200220758</v>
+        <v>1.600321831716452</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.82579298998588</v>
+        <v>-2.65505626862693</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.740547608707659</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.14700412017591</v>
+        <v>-24.78145393253208</v>
       </c>
       <c r="F26" t="n">
-        <v>1.93268303165651</v>
+        <v>1.677278387820118</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.877141001731129</v>
+        <v>-2.729682394824769</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.958982618215146</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.12964372660779</v>
+        <v>-24.77985667158539</v>
       </c>
       <c r="F27" t="n">
-        <v>1.887540771458239</v>
+        <v>1.659106271475802</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.977755349069794</v>
+        <v>-2.816248701214262</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.213224753712735</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.09311620167937</v>
+        <v>-24.74420633094737</v>
       </c>
       <c r="F28" t="n">
-        <v>1.89809316754867</v>
+        <v>1.669370636903715</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.969598844399399</v>
+        <v>-2.839107861975915</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>3.49242136267871</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.19141321141505</v>
+        <v>-24.83505382036611</v>
       </c>
       <c r="F29" t="n">
-        <v>2.05836913893708</v>
+        <v>1.819565535103997</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.105274378748206</v>
+        <v>-2.981133163202959</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>3.781889868240664</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.06515104280944</v>
+        <v>-24.70376420746928</v>
       </c>
       <c r="F30" t="n">
-        <v>2.042370344864491</v>
+        <v>1.794611605887667</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.326076066173916</v>
+        <v>-3.211596970125863</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>4.064488619113716</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.60019099968838</v>
+        <v>-24.28655179281199</v>
       </c>
       <c r="F31" t="n">
-        <v>1.786389639703063</v>
+        <v>1.562956399406166</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.324989405038053</v>
+        <v>-3.22734701044446</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>4.331124315485429</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.43996739751134</v>
+        <v>-24.12187680766876</v>
       </c>
       <c r="F32" t="n">
-        <v>1.890656739534569</v>
+        <v>1.660677347816809</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.675234690659909</v>
+        <v>-3.594991966542969</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>4.567619136340871</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.28477123962552</v>
+        <v>-23.93495799999744</v>
       </c>
       <c r="F33" t="n">
-        <v>1.743289778748101</v>
+        <v>1.523758044698038</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.767836548659437</v>
+        <v>-3.672157999492103</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>4.767712270026321</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.77621382804151</v>
+        <v>-23.43764687655447</v>
       </c>
       <c r="F34" t="n">
-        <v>1.579400331775374</v>
+        <v>1.36539354952452</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.86494215883652</v>
+        <v>-3.766933179763358</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>4.926382495028671</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.25076734579168</v>
+        <v>-22.96269740636518</v>
       </c>
       <c r="F35" t="n">
-        <v>1.592675926856884</v>
+        <v>1.362303766053872</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.886190966348641</v>
+        <v>-3.769302886577711</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>5.037114267572614</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.83718149902155</v>
+        <v>-22.53808784060232</v>
       </c>
       <c r="F36" t="n">
-        <v>1.483590859579623</v>
+        <v>1.247065316440999</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.931058288187236</v>
+        <v>-3.821017482802529</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>5.103301299598672</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.37384490145286</v>
+        <v>-22.05389520460676</v>
       </c>
       <c r="F37" t="n">
-        <v>1.393568185239914</v>
+        <v>1.178723495607189</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.951573926740221</v>
+        <v>-3.809587902421702</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>5.125985036598351</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.78483528890645</v>
+        <v>-21.50265688575873</v>
       </c>
       <c r="F38" t="n">
-        <v>1.510403895799477</v>
+        <v>1.257067835812078</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.763241150361992</v>
+        <v>-3.629516369136601</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>5.116126880397068</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.3844202987951</v>
+        <v>-21.10040897324954</v>
       </c>
       <c r="F39" t="n">
-        <v>1.338737620938765</v>
+        <v>1.13079257490363</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.739190590041741</v>
+        <v>-3.596471396764085</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>5.086275221673892</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.90975885926832</v>
+        <v>-20.63662723738423</v>
       </c>
       <c r="F40" t="n">
-        <v>1.380763913060706</v>
+        <v>1.136422265125572</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.818110991571666</v>
+        <v>-3.69678462113739</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>5.04295304036653</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.31182029618385</v>
+        <v>-20.03046670811516</v>
       </c>
       <c r="F41" t="n">
-        <v>1.392808831675094</v>
+        <v>1.164531439326758</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.691456053880807</v>
+        <v>-3.542544201359015</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>4.998172707642484</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.68911109612283</v>
+        <v>-19.40094951057644</v>
       </c>
       <c r="F42" t="n">
-        <v>1.373615515709124</v>
+        <v>1.148139876168917</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.863305620981304</v>
+        <v>-3.681597549840988</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>4.952154824772721</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.15083415708811</v>
+        <v>-18.88386900984247</v>
       </c>
       <c r="F43" t="n">
-        <v>1.235242966974921</v>
+        <v>0.9903776269261181</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.744807187960841</v>
+        <v>-3.586364138970272</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>4.906174180262063</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.77174652830593</v>
+        <v>-18.50184870522375</v>
       </c>
       <c r="F44" t="n">
-        <v>1.206819577505533</v>
+        <v>0.9739075099512267</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.661697249521564</v>
+        <v>-3.497899448668729</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>4.85908360930921</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.50370781222727</v>
+        <v>-18.22306120851203</v>
       </c>
       <c r="F45" t="n">
-        <v>1.23212699889859</v>
+        <v>1.020398277342196</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.867351142559397</v>
+        <v>-3.683600672175772</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>4.801488872148046</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.89800551355766</v>
+        <v>-17.64021807060407</v>
       </c>
       <c r="F46" t="n">
-        <v>1.307158986484522</v>
+        <v>1.082233223663668</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.807833533840911</v>
+        <v>-3.631270737717393</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>4.730905073689969</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.5286847426954</v>
+        <v>-17.29574649053541</v>
       </c>
       <c r="F47" t="n">
-        <v>1.272372737834056</v>
+        <v>1.058405232491727</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.672367476337571</v>
+        <v>-3.511489259018441</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>4.637099537300458</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.13312699693834</v>
+        <v>-16.91834776881982</v>
       </c>
       <c r="F48" t="n">
-        <v>1.255496759471071</v>
+        <v>1.034865271982303</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.6826056571598</v>
+        <v>-3.508713690815995</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>4.51283802961704</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.64484956245616</v>
+        <v>-16.41951793824721</v>
       </c>
       <c r="F49" t="n">
-        <v>1.205811470186721</v>
+        <v>0.9718127414965505</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.591155921810344</v>
+        <v>-3.422540153511754</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>4.352684786905161</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.27767592925995</v>
+        <v>-16.07028075994417</v>
       </c>
       <c r="F50" t="n">
-        <v>1.065187045363741</v>
+        <v>0.8231365504259093</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.686559532618002</v>
+        <v>-3.466779044813946</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>4.147479601873079</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.72783848681599</v>
+        <v>-15.5081103682233</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9964786400503625</v>
+        <v>0.7634225571647967</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.74161266606746</v>
+        <v>-3.525995530567073</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>3.895291281910537</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.31151634875194</v>
+        <v>-15.12663994032392</v>
       </c>
       <c r="F52" t="n">
-        <v>1.087980744611186</v>
+        <v>0.8508398632390016</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.890930379977346</v>
+        <v>-3.670534553939729</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>3.592925512901406</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.75561717009225</v>
+        <v>-14.58417346437985</v>
       </c>
       <c r="F53" t="n">
-        <v>1.223355155994633</v>
+        <v>0.9899324886294993</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.017729332999463</v>
+        <v>-3.801051720968896</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>3.240867153370127</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.37381943462183</v>
+        <v>-14.20433957433569</v>
       </c>
       <c r="F54" t="n">
-        <v>1.108915336855106</v>
+        <v>0.8664589805291808</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.129079368668343</v>
+        <v>-3.920440430582596</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>2.841202111517475</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.88037054051718</v>
+        <v>-13.69838753101719</v>
       </c>
       <c r="F55" t="n">
-        <v>0.890679740786374</v>
+        <v>0.6719204526039732</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.289735016839163</v>
+        <v>-4.065385315343345</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>2.394516623483491</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.70010262268945</v>
+        <v>-13.53860906713676</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9767878165764065</v>
+        <v>0.7630821572909118</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.396934792507216</v>
+        <v>-4.164847540031938</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>1.904511710273983</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.33896454110328</v>
+        <v>-13.1799847076962</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9270632503835308</v>
+        <v>0.6981181505902671</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.526155821555053</v>
+        <v>-4.310473224540457</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>1.374210395144609</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.07083417890473</v>
+        <v>-12.94107636544038</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9967273938043553</v>
+        <v>0.7557897446080704</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.930092641130828</v>
+        <v>-4.709199307585225</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.8073286081730053</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.63455937130989</v>
+        <v>-12.53559465412928</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9271941734119481</v>
+        <v>0.6912446915983609</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.109077513280065</v>
+        <v>-4.896393053616224</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2088638536039704</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.1522389346207</v>
+        <v>-12.06301489075434</v>
       </c>
       <c r="F60" t="n">
-        <v>0.7644306644836096</v>
+        <v>0.5490230058286906</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.182669347553406</v>
+        <v>-4.986572835590033</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4145883183463308</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.1322208035757</v>
+        <v>-12.02178722910575</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7941763765400113</v>
+        <v>0.5768310570645168</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.43429031586854</v>
+        <v>-5.21098799860006</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-1.054717062734407</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.79090446849191</v>
+        <v>-11.68870595250939</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7103725460501227</v>
+        <v>0.5015241311189084</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.777688327104173</v>
+        <v>-5.535834216708968</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.700691208998994</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.56895065841612</v>
+        <v>-11.45841234552343</v>
       </c>
       <c r="F63" t="n">
-        <v>0.642776986478291</v>
+        <v>0.4321349260577603</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.780241326158309</v>
+        <v>-5.54056053803483</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.340672230911215</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.31473741413833</v>
+        <v>-11.23270104453207</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5592219097423952</v>
+        <v>0.3815462678773307</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.718065979962953</v>
+        <v>-5.505708827870156</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.96246308510461</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.29496803684732</v>
+        <v>-11.18783372269348</v>
       </c>
       <c r="F65" t="n">
-        <v>0.5900673752375019</v>
+        <v>0.396157277848697</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.704973677121226</v>
+        <v>-5.503260567238753</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-3.551339199177653</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.13247946627866</v>
+        <v>-11.03562260985557</v>
       </c>
       <c r="F66" t="n">
-        <v>0.565205092141064</v>
+        <v>0.3770817926083022</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.777230096504712</v>
+        <v>-5.578200908704793</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.095525146487806</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.02280524537352</v>
+        <v>-10.94432998214021</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3568280001121519</v>
+        <v>0.1667277628502894</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.893620668767658</v>
+        <v>-5.663876938501049</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.582974171644895</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.0158008633532</v>
+        <v>-10.93561050844763</v>
       </c>
       <c r="F68" t="n">
-        <v>0.3531490630136269</v>
+        <v>0.1563193820911172</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.708194383620291</v>
+        <v>-5.491451310075516</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.00440888677335</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.99068982650277</v>
+        <v>-10.89910916812489</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3379881763229081</v>
+        <v>0.1687439774879152</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.502278644525624</v>
+        <v>-5.269654607633835</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.356049511401133</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.94851951904957</v>
+        <v>-10.89707986118442</v>
       </c>
       <c r="F70" t="n">
-        <v>0.04386959298353198</v>
+        <v>-0.1330466953167124</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.304545594707035</v>
+        <v>-5.108488359652187</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.633022310918555</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.78481336431662</v>
+        <v>-10.75074719232245</v>
       </c>
       <c r="F71" t="n">
-        <v>0.07466268926727168</v>
+        <v>-0.09856156963160592</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.328308124364767</v>
+        <v>-5.098564394098158</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.837763169073169</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.95706879280521</v>
+        <v>-10.92645898876126</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1392993883968733</v>
+        <v>-0.05537006255675162</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.1610801401674</v>
+        <v>-4.952676863532805</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.972892801668209</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.13816152571197</v>
+        <v>-11.10671381428614</v>
       </c>
       <c r="F73" t="n">
-        <v>0.008860775184756468</v>
+        <v>-0.1706346967753079</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.092096796494346</v>
+        <v>-4.873128031466477</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.041556188434591</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.49814748464807</v>
+        <v>-11.45596408489203</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.02932947220455847</v>
+        <v>-0.2030381463085799</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.079187785892404</v>
+        <v>-4.87429324641939</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.050533641034007</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.93880821369489</v>
+        <v>-11.86812287065241</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.07813757719851326</v>
+        <v>-0.2660121229772823</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.893394916265469</v>
+        <v>-4.682687394330729</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.999557341233617</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.97266490884359</v>
+        <v>-11.92935557104316</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.1204126230744467</v>
+        <v>-0.326629485134474</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.660050802717385</v>
+        <v>-4.443805236680596</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.890925906227091</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.36318211800659</v>
+        <v>-12.34789030828746</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.164415852925488</v>
+        <v>-0.3734082831879613</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.470029119272573</v>
+        <v>-4.270620254690243</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.723238157463514</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.19898163911954</v>
+        <v>-13.16948468081713</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.3493053536563436</v>
+        <v>-0.5586905530040686</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.361703405560132</v>
+        <v>-4.167151785332083</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.493341534123514</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.78534660649193</v>
+        <v>-13.7508222038983</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.4080374242043267</v>
+        <v>-0.5984780613400741</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.337076783914845</v>
+        <v>-4.093298105001906</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.2016362837977</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.3377894172014</v>
+        <v>-14.31375194918399</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.4377176747465197</v>
+        <v>-0.634665186394605</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.997187509840795</v>
+        <v>-3.808475056680155</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.843389459092784</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.02140401008213</v>
+        <v>-14.98499431587929</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.422648434175693</v>
+        <v>-0.6398890152284537</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.56995948350959</v>
+        <v>-3.389547550350604</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.417578976551384</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.9551994179654</v>
+        <v>-15.90856463524317</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.6703155270326251</v>
+        <v>-0.8639899629702787</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.428444782093373</v>
+        <v>-3.242573358649387</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.923316771162606</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.69714022000602</v>
+        <v>-16.65275731337256</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.7572484179016862</v>
+        <v>-0.9505562693597716</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.238842052339495</v>
+        <v>-3.079613465178423</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.360742445182326</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.63577977994072</v>
+        <v>-17.58588501381091</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.8999152419679751</v>
+        <v>-1.097569737969514</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.955760280295694</v>
+        <v>-2.799254892125701</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.735328281447809</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.66623565970446</v>
+        <v>-18.61789887761281</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9251702941496647</v>
+        <v>-1.147739442459008</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.968590737080586</v>
+        <v>-2.791216218180881</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.054465012572564</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.939488295668</v>
+        <v>-19.88385910089351</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.124278035766635</v>
+        <v>-1.333087173789324</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.670217155317649</v>
+        <v>-2.520284103174202</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-1.330991956336778</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.03208024471857</v>
+        <v>-21.00609202357774</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.098250537717283</v>
+        <v>-1.299544693908822</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.886109229177712</v>
+        <v>-2.71384070838628</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.5817128547374866</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.57873944092588</v>
+        <v>-22.53721065631192</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.028036517577106</v>
+        <v>-1.260883123617204</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.651141670077254</v>
+        <v>-2.505895662351145</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.174975086656395</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.86004384313708</v>
+        <v>-23.82126444211989</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.312191858453929</v>
+        <v>-1.500131865746907</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.762517890351817</v>
+        <v>-2.605226964011321</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.9193672005502391</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.41828972735932</v>
+        <v>-25.38822980003471</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.271671181158787</v>
+        <v>-1.478699765995001</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.647646025218513</v>
+        <v>-2.536714943240568</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>1.632989827200044</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.10393681053439</v>
+        <v>-27.06109879563626</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.380533679287739</v>
+        <v>-1.577808498506867</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.798979953766025</v>
+        <v>-2.683453473490634</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>2.298216506583419</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.7440357721231</v>
+        <v>-28.70797957009698</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.553679384369566</v>
+        <v>-1.719951630459487</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.051019875772093</v>
+        <v>-2.88799452078692</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>2.897740068356867</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.56910278825971</v>
+        <v>-30.53308586314213</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.656702715431109</v>
+        <v>-1.841814785310274</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.054214397665474</v>
+        <v>-2.914139849561847</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>3.415690497552606</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.34926320564921</v>
+        <v>-32.2883578128295</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.538741066827157</v>
+        <v>-1.727820104467365</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.433642426321537</v>
+        <v>-3.286262373232227</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>3.840435926387229</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.20398428772233</v>
+        <v>-34.14978215395758</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.871704512697934</v>
+        <v>-2.047363939925373</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.502062800972398</v>
+        <v>-3.338382830845139</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>4.15654516234738</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.18797876805466</v>
+        <v>-36.1250178836888</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.098031151922853</v>
+        <v>-2.294952478965254</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.957229801567847</v>
+        <v>-3.80343452008609</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>4.361352716049843</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.34285398507719</v>
+        <v>-38.26139367679598</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.168729587268174</v>
+        <v>-2.362534946234244</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.110016975730789</v>
+        <v>-3.939646838851409</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>4.439964117936603</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.58222692464022</v>
+        <v>-40.51171178153469</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.307311612847844</v>
+        <v>-2.513777228661864</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.553335442254476</v>
+        <v>-4.36358869716934</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>4.407880523038434</v>
       </c>
       <c r="E99" t="n">
-        <v>-42.7186027177474</v>
+        <v>-42.61805383192295</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.512598921406109</v>
+        <v>-2.72893613356279</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.745176955794288</v>
+        <v>-4.565354176263181</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>4.249839125681328</v>
       </c>
       <c r="E100" t="n">
-        <v>-44.91212641275872</v>
+        <v>-44.79610242497534</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.657622359983908</v>
+        <v>-2.858497562484511</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.79791275164076</v>
+        <v>-4.622240232110481</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>4.021890730570159</v>
       </c>
       <c r="E101" t="n">
-        <v>-46.90774685801449</v>
+        <v>-46.84003346771708</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.769613918492033</v>
+        <v>-2.973159950772348</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.300958303728401</v>
+        <v>-5.112167296750711</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>3.674457426178555</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.1949590721612</v>
+        <v>-49.11823817750868</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.074389636344574</v>
+        <v>-3.271638270958019</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.621065108208604</v>
+        <v>-5.446295957574403</v>
       </c>
     </row>
   </sheetData>
